--- a/spreadsheets/Alistar.xlsx
+++ b/spreadsheets/Alistar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24457D27-0F4D-456F-8881-7618D88FE46E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D062D4DA-C428-440B-AE8E-6A299980C69D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33900" yWindow="2070" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
     <t>https://na.op.gg/summoner/userName=simiy15</t>
   </si>
   <si>
-    <t>https://i.imgur.com/nvPR68X.png</t>
+    <t>https://i.imgur.com/Eb0mbOe.png</t>
   </si>
 </sst>
 </file>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" activeCellId="1" sqref="B9 L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +919,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{CBE97AE1-BB30-4A3D-9C84-EF31BD761F10}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{C6DE7AA0-4CA4-499A-A594-E67271100095}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{E686A887-42B3-4D1E-9012-EC0C9CDB5CC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
